--- a/va_facility_data_2025-02-20/Cambridge VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cambridge%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cambridge VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cambridge%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc0f15036be7d4c049aa363dd9cc90681"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3954dbcead644332b8387c9689cdf363"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R201607aee10d4c1a8d4bad4beb95afcb"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Raa1526048f62446ea2b2cb1bbb527408"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra4319e99da7d4979a54cad54d58a76e2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9e61ef7134a54fbcb1398c8dada1a775"/>
   </x:sheets>
 </x:workbook>
 </file>
